--- a/data/trans_dic/P25C$smedicoempresa_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P25C$smedicoempresa_2023-Habitat-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.00735759067289737</v>
+        <v>0.007357590672897369</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.002213595091077257</v>
@@ -597,10 +597,10 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.04557105017136533</v>
+        <v>0.03642368463382929</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01278810868733382</v>
+        <v>0.0112373115814078</v>
       </c>
     </row>
     <row r="7">
@@ -647,11 +647,11 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03444074555149493</v>
+        <v>0.03550334992492497</v>
       </c>
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="n">
-        <v>0.02609003154880923</v>
+        <v>0.0219467685355826</v>
       </c>
     </row>
     <row r="10">
@@ -741,11 +741,11 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01537950300386609</v>
+        <v>0.0146295878155275</v>
       </c>
       <c r="D15" s="5" t="inlineStr"/>
       <c r="E15" s="5" t="n">
-        <v>0.009520799737896197</v>
+        <v>0.007962876577380373</v>
       </c>
     </row>
     <row r="16">
@@ -777,13 +777,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0008712579064322233</v>
+        <v>0.0008634239635678775</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0005606026291606271</v>
+        <v>0.0006062392325595361</v>
       </c>
     </row>
     <row r="18">
@@ -794,13 +794,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01000150160717998</v>
+        <v>0.01042796307259804</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.004335942564322261</v>
+        <v>0.005370147835688709</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.006936989383118132</v>
+        <v>0.006819195980587522</v>
       </c>
     </row>
     <row r="19">
@@ -958,10 +958,10 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>2409</v>
+        <v>1925</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>2247</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="8">
@@ -1025,11 +1025,11 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5889</v>
+        <v>6071</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="n">
-        <v>6811</v>
+        <v>5729</v>
       </c>
     </row>
     <row r="12">
@@ -1153,11 +1153,11 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>3104</v>
+        <v>2953</v>
       </c>
       <c r="D19" s="6" t="inlineStr"/>
       <c r="E19" s="6" t="n">
-        <v>3249</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="20">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>575</v>
+        <v>622</v>
       </c>
     </row>
     <row r="23">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>6603</v>
+        <v>6885</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1586</v>
+        <v>1965</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>7118</v>
+        <v>6997</v>
       </c>
     </row>
     <row r="24">
